--- a/files/lista.xlsx
+++ b/files/lista.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeferson.pigosso\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeferson.pigosso\Documents\Python\Projetos\consulta_caixas\app\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B923E471-F736-490F-8932-896B0F353168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DF106D-2239-458D-8D07-2C5576FEE526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7400,9 +7400,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2334"/>
+  <dimension ref="A1:A2335"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2304" workbookViewId="0">
+      <selection activeCell="H2334" sqref="H2334"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -19076,6 +19078,11 @@
         <v>2333</v>
       </c>
     </row>
+    <row r="2335" spans="1:1">
+      <c r="A2335">
+        <v>99999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/files/lista.xlsx
+++ b/files/lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeferson.pigosso\Documents\Python\Projetos\consulta_caixas\app\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DF106D-2239-458D-8D07-2C5576FEE526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2BE6BA-C287-468E-99BC-34E8DEE2E34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7400,10 +7400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2335"/>
+  <dimension ref="A1:A2334"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2304" workbookViewId="0">
-      <selection activeCell="H2334" sqref="H2334"/>
+      <selection activeCell="A2332" sqref="A2332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19078,11 +19078,6 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="2335" spans="1:1">
-      <c r="A2335">
-        <v>99999999</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/files/lista.xlsx
+++ b/files/lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeferson.pigosso\Documents\Python\Projetos\consulta_caixas\app\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2BE6BA-C287-468E-99BC-34E8DEE2E34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D6DF20-5EE8-44DD-AC7A-BD6F71CFE294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7400,10 +7400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2334"/>
+  <dimension ref="A1:A2335"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2304" workbookViewId="0">
-      <selection activeCell="A2332" sqref="A2332"/>
+      <selection activeCell="A2336" sqref="A2336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19078,6 +19078,11 @@
         <v>2333</v>
       </c>
     </row>
+    <row r="2335" spans="1:1">
+      <c r="A2335">
+        <v>99999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/files/lista.xlsx
+++ b/files/lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeferson.pigosso\Documents\Python\Projetos\consulta_caixas\app\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D6DF20-5EE8-44DD-AC7A-BD6F71CFE294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB0B39B-F166-41B4-94C2-93D2D7372F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7400,10 +7400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2335"/>
+  <dimension ref="A1:A2334"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2304" workbookViewId="0">
-      <selection activeCell="A2336" sqref="A2336"/>
+      <selection activeCell="A2335" sqref="A2335:XFD2335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19078,11 +19078,6 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="2335" spans="1:1">
-      <c r="A2335">
-        <v>99999999</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
